--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -475,10 +475,10 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for this medication</t>
-  </si>
-  <si>
-    <t>Business identifier for this medication.</t>
+    <t>Legemiddelets identifikasjon</t>
+  </si>
+  <si>
+    <t>Legemiddelets identifikasjon i henhold til TODO</t>
   </si>
   <si>
     <t>The serial number could be included as an identifier.</t>
@@ -583,7 +583,7 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t>powder | tablets | capsule +</t>
+    <t>Legemiddelform</t>
   </si>
   <si>
     <t>Describes the form of the item.  Powder; tablets; capsule.</t>
@@ -749,7 +749,7 @@
     <t>Medication.batch</t>
   </si>
   <si>
-    <t>Details about packaged medications</t>
+    <t>Batch-nummer for legemiddelet</t>
   </si>
   <si>
     <t>Information that only applies to packages (not products).</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-05-30</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -481,7 +481,7 @@
     <t>Legemiddelets identifikasjon i henhold til TODO</t>
   </si>
   <si>
-    <t>The serial number could be included as an identifier.</t>
+    <t>Finnes ikke p.t.</t>
   </si>
   <si>
     <t>.id</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="332">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12</t>
+    <t>2024-06-20</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -609,6 +609,290 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
+    <t>Medication.form.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.form.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Kodet legemiddelform. Inntil videre begrenset til Legemiddelform (7448) og kodesetteksempel basert på SNOMED CT fra HL7.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.id</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Medication.form.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448</t>
+  </si>
+  <si>
+    <t>7448</t>
+  </si>
+  <si>
+    <t>Kodeverk Legemiddelform (7448) fra FEST/eResept</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.id</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7448</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.version</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.code</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.display</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:7448.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>SNOMED CT Form Codes</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.id</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.version</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.code</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.display</t>
+  </si>
+  <si>
+    <t>Medication.form.coding:SCT.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.form.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Medication.amount</t>
   </si>
   <si>
@@ -647,29 +931,7 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -712,10 +974,6 @@
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Active ingredient indicator</t>
@@ -1115,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1124,7 +1382,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1152,7 +1410,7 @@
     <col min="26" max="26" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2904,7 +3162,7 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>188</v>
@@ -2964,7 +3222,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2976,13 +3234,13 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -2993,14 +3251,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3019,16 +3277,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3066,19 +3324,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3090,13 +3348,13 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3107,10 +3365,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3118,10 +3376,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3130,19 +3388,23 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3178,62 +3440,60 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3245,17 +3505,15 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3304,25 +3562,25 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3333,14 +3591,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3353,26 +3611,24 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3408,19 +3664,19 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3438,7 +3694,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3449,10 +3705,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3472,20 +3728,22 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3534,10 +3792,10 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>86</v>
@@ -3549,7 +3807,7 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>217</v>
@@ -3586,21 +3844,21 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3648,7 +3906,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3672,15 +3930,15 @@
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3688,7 +3946,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -3700,19 +3958,21 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3760,7 +4020,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3775,24 +4035,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3812,19 +4072,21 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3872,7 +4134,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3887,24 +4149,24 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3924,19 +4186,23 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3984,7 +4250,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3996,38 +4262,40 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4036,21 +4304,23 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4110,63 +4380,59 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4214,25 +4480,25 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4243,21 +4509,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4269,15 +4535,17 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4314,51 +4582,51 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4378,19 +4646,23 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4399,7 +4671,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4438,7 +4710,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4453,20 +4725,3098 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>246</v>
+      <c r="AL51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN29">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4476,7 +7826,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI28">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -531,6 +531,353 @@
     <t>RXO-1.1-Requested Give Code.code / RXE-2.1-Give Code.code / RXD-2.1-Dispense/Give Code.code / RXG-4.1-Give Code.code /RXA-5.1-Administered Code.code / RXC-2.1 Component Code</t>
   </si>
   <si>
+    <t>Medication.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FEST-id for legemiddel DOSE</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.system</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://dmp.no/fhir/NamingSystem/festLegemiddelDose</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FD.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>FEST-id for legemiddel MERKEVARE</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.system</t>
+  </si>
+  <si>
+    <t>http://dmp.no/fhir/NamingSystem/festLegemiddelMerkevare</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FM.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FEST-id for legemiddel PAKNING</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.system</t>
+  </si>
+  <si>
+    <t>http://dmp.no/fhir/NamingSystem/festLegemiddelPakning</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FP.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>FEST-is for legemiddel VIRKESTOFF</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.system</t>
+  </si>
+  <si>
+    <t>http://dmp.no/fhir/NamingSystem/festLegemiddelVirkestoff</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FV.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Medication.status</t>
   </si>
   <si>
@@ -612,73 +959,18 @@
     <t>Medication.form.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.form.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Medication.form.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
     <t>Kodet legemiddelform. Inntil videre begrenset til Legemiddelform (7448) og kodesetteksempel basert på SNOMED CT fra HL7.</t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:system}
-</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>Medication.form.coding.id</t>
   </si>
   <si>
@@ -688,118 +980,18 @@
     <t>Medication.form.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
     <t>Medication.form.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
     <t>Medication.form.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
     <t>Medication.form.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
     <t>Medication.form.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>Medication.form.coding:7448</t>
   </si>
   <si>
@@ -809,9 +1001,6 @@
     <t>Kodeverk Legemiddelform (7448) fra FEST/eResept</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
     <t>Medication.form.coding:7448.id</t>
   </si>
   <si>
@@ -870,27 +1059,6 @@
   </si>
   <si>
     <t>Medication.form.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Medication.amount</t>
@@ -1373,7 +1541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2819,23 +2987,21 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2860,49 +3026,49 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2913,21 +3079,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2936,18 +3102,20 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2984,51 +3152,51 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3039,30 +3207,32 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3086,37 +3256,35 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3125,26 +3293,28 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3162,19 +3332,23 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3222,50 +3396,50 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3277,17 +3451,15 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3324,37 +3496,37 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3365,18 +3537,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -3388,23 +3560,21 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3440,17 +3610,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3462,27 +3634,27 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3490,7 +3662,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3502,19 +3674,23 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3523,7 +3699,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3562,7 +3738,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3574,38 +3750,38 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3614,19 +3790,19 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3664,51 +3840,51 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3716,7 +3892,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3731,19 +3907,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3792,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3810,21 +3984,21 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3847,18 +4021,18 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3906,7 +4080,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3924,18 +4098,18 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>226</v>
@@ -3946,7 +4120,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -3961,17 +4135,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4020,7 +4196,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4038,23 +4214,25 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4066,7 +4244,7 @@
         <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
@@ -4075,17 +4253,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4134,13 +4314,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4152,21 +4332,21 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4186,23 +4366,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4250,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4262,40 +4438,38 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4304,23 +4478,21 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4356,19 +4528,19 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4380,27 +4552,27 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4408,7 +4580,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4420,19 +4592,23 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4441,7 +4617,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4480,7 +4656,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4492,38 +4668,38 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4532,19 +4708,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4582,51 +4758,51 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4649,19 +4825,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4671,7 +4845,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4710,7 +4884,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4728,21 +4902,21 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4765,18 +4939,18 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4824,7 +4998,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4842,18 +5016,18 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>226</v>
@@ -4879,17 +5053,19 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4938,7 +5114,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4956,23 +5132,25 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4993,17 +5171,19 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5052,13 +5232,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -5070,21 +5250,21 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5104,23 +5284,19 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5168,7 +5344,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5180,40 +5356,38 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5222,23 +5396,21 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5274,19 +5446,19 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5298,27 +5470,27 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5326,7 +5498,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5338,19 +5510,23 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5359,7 +5535,7 @@
         <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>76</v>
@@ -5398,7 +5574,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5410,38 +5586,38 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5450,19 +5626,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5500,51 +5676,51 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5567,19 +5743,17 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5589,7 +5763,7 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5628,7 +5802,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5646,21 +5820,21 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5683,18 +5857,18 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5742,7 +5916,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5760,18 +5934,18 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>226</v>
@@ -5797,17 +5971,19 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5856,7 +6032,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5874,23 +6050,25 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5911,17 +6089,19 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5970,13 +6150,13 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
@@ -5988,21 +6168,21 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6022,23 +6202,19 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6086,7 +6262,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6098,38 +6274,38 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6138,23 +6314,21 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6190,51 +6364,51 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6242,7 +6416,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6257,16 +6431,20 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6275,7 +6453,7 @@
         <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>76</v>
@@ -6314,7 +6492,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6332,21 +6510,21 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6357,7 +6535,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6366,19 +6544,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6428,13 +6606,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -6446,21 +6624,21 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6480,19 +6658,21 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6540,7 +6720,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6552,38 +6732,38 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6592,21 +6772,21 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6654,74 +6834,74 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6770,39 +6950,39 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6810,7 +6990,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -6822,20 +7002,22 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6884,10 +7066,10 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>86</v>
@@ -6899,24 +7081,24 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6933,24 +7115,24 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6974,13 +7156,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6998,7 +7180,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7016,7 +7198,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7027,10 +7209,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7050,16 +7232,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7110,7 +7292,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7125,24 +7307,24 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7165,15 +7347,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7198,13 +7382,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7222,7 +7406,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7237,24 +7421,24 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7277,13 +7461,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7334,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7352,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7363,10 +7547,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7395,7 +7579,7 @@
         <v>133</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>135</v>
@@ -7436,19 +7620,19 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7466,7 +7650,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7477,18 +7661,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -7497,25 +7681,25 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7552,19 +7736,17 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7576,27 +7758,27 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7619,13 +7801,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7676,7 +7858,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7688,38 +7870,38 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7731,15 +7913,17 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>328</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7776,47 +7960,4159 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="M70" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN56" t="s" s="2">
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>331</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AN92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7826,7 +12122,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="389">
   <si>
     <t>Property</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>FEST-id for legemiddel DOSE</t>
+  </si>
+  <si>
+    <t>URI for NamingSystem er midlertidig, må normeres som en del av no-basis.</t>
   </si>
   <si>
     <t>Medication.code.coding:FD.id</t>
@@ -3344,7 +3347,7 @@
         <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>179</v>
@@ -3425,10 +3428,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3537,10 +3540,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3651,10 +3654,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3680,16 +3683,16 @@
         <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3699,7 +3702,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3738,7 +3741,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3756,21 +3759,21 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3796,13 +3799,13 @@
         <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3852,7 +3855,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3870,21 +3873,21 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3910,14 +3913,14 @@
         <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3966,7 +3969,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3984,21 +3987,21 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4024,14 +4027,14 @@
         <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4080,7 +4083,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4098,21 +4101,21 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4135,19 +4138,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4196,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4214,24 +4217,24 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
@@ -4256,13 +4259,13 @@
         <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>179</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4455,10 +4458,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4569,10 +4572,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4598,16 +4601,16 @@
         <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4617,7 +4620,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4656,7 +4659,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4674,21 +4677,21 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4714,13 +4717,13 @@
         <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4770,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4788,21 +4791,21 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4828,14 +4831,14 @@
         <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4887,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4902,21 +4905,21 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4942,14 +4945,14 @@
         <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4998,7 +5001,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5016,21 +5019,21 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5053,19 +5056,19 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5114,7 +5117,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5132,24 +5135,24 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
@@ -5174,13 +5177,13 @@
         <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>177</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>179</v>
@@ -5261,10 +5264,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5373,10 +5376,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5487,10 +5490,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5516,16 +5519,16 @@
         <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5535,7 +5538,7 @@
         <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>76</v>
@@ -5574,7 +5577,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5592,21 +5595,21 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5632,13 +5635,13 @@
         <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5688,7 +5691,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5706,21 +5709,21 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5746,14 +5749,14 @@
         <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5802,7 +5805,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5820,21 +5823,21 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5860,14 +5863,14 @@
         <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5916,7 +5919,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5934,21 +5937,21 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5971,19 +5974,19 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6032,7 +6035,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6050,24 +6053,24 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
@@ -6092,13 +6095,13 @@
         <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>177</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>179</v>
@@ -6179,10 +6182,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6291,10 +6294,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6405,10 +6408,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6434,16 +6437,16 @@
         <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6453,7 +6456,7 @@
         <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>76</v>
@@ -6492,7 +6495,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6510,21 +6513,21 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6550,13 +6553,13 @@
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6606,7 +6609,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6624,21 +6627,21 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6664,14 +6667,14 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6720,7 +6723,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6738,21 +6741,21 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6778,14 +6781,14 @@
         <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6834,7 +6837,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6852,21 +6855,21 @@
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6889,19 +6892,19 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6950,7 +6953,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6968,21 +6971,21 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7008,16 +7011,16 @@
         <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7066,7 +7069,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7084,21 +7087,21 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7124,13 +7127,13 @@
         <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7156,13 +7159,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7180,7 +7183,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7198,7 +7201,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7209,10 +7212,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7235,13 +7238,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7292,7 +7295,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7307,24 +7310,24 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7350,13 +7353,13 @@
         <v>151</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7385,10 +7388,10 @@
         <v>155</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7406,7 +7409,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7421,24 +7424,24 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7547,10 +7550,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7661,10 +7664,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7690,13 +7693,13 @@
         <v>175</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>177</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>179</v>
@@ -7743,7 +7746,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>181</v>
@@ -7775,10 +7778,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7887,10 +7890,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8001,10 +8004,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8030,16 +8033,16 @@
         <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8088,7 +8091,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8106,21 +8109,21 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8146,13 +8149,13 @@
         <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8202,7 +8205,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8220,21 +8223,21 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8260,14 +8263,14 @@
         <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8316,7 +8319,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8334,21 +8337,21 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8374,14 +8377,14 @@
         <v>163</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8430,7 +8433,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8448,21 +8451,21 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8485,19 +8488,19 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8546,7 +8549,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8564,24 +8567,24 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>76</v>
@@ -8606,7 +8609,7 @@
         <v>175</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>177</v>
@@ -8693,10 +8696,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8805,10 +8808,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8919,10 +8922,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8948,16 +8951,16 @@
         <v>100</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8967,7 +8970,7 @@
         <v>76</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>76</v>
@@ -9006,7 +9009,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9024,21 +9027,21 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9064,13 +9067,13 @@
         <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9120,7 +9123,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9138,21 +9141,21 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9178,14 +9181,14 @@
         <v>106</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9234,7 +9237,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9252,21 +9255,21 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9292,14 +9295,14 @@
         <v>163</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9348,7 +9351,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9366,21 +9369,21 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9403,19 +9406,19 @@
         <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9464,7 +9467,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9482,24 +9485,24 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
@@ -9524,7 +9527,7 @@
         <v>175</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>177</v>
@@ -9611,10 +9614,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9723,10 +9726,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9837,10 +9840,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9866,16 +9869,16 @@
         <v>100</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9885,7 +9888,7 @@
         <v>76</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>76</v>
@@ -9924,7 +9927,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -9942,21 +9945,21 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9982,13 +9985,13 @@
         <v>163</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10038,7 +10041,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10056,21 +10059,21 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10096,14 +10099,14 @@
         <v>106</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10152,7 +10155,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10170,21 +10173,21 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10210,14 +10213,14 @@
         <v>163</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10266,7 +10269,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10284,21 +10287,21 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10321,19 +10324,19 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10382,7 +10385,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10400,21 +10403,21 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10440,16 +10443,16 @@
         <v>163</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10498,7 +10501,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10516,21 +10519,21 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10553,13 +10556,13 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10610,7 +10613,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10628,7 +10631,7 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -10639,10 +10642,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10665,16 +10668,16 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10724,7 +10727,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -10742,7 +10745,7 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -10753,10 +10756,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10865,10 +10868,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10979,14 +10982,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11008,10 +11011,10 @@
         <v>132</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>135</v>
@@ -11066,7 +11069,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11095,10 +11098,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11121,17 +11124,17 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11180,7 +11183,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>86</v>
@@ -11198,21 +11201,21 @@
         <v>158</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11235,17 +11238,17 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -11294,7 +11297,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11312,7 +11315,7 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11323,10 +11326,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11349,13 +11352,13 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11406,7 +11409,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -11421,24 +11424,24 @@
         <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11461,13 +11464,13 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11518,7 +11521,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -11533,10 +11536,10 @@
         <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -11547,10 +11550,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11659,10 +11662,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11773,14 +11776,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11802,10 +11805,10 @@
         <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>135</v>
@@ -11860,7 +11863,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11889,10 +11892,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11918,10 +11921,10 @@
         <v>163</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11972,7 +11975,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11987,7 +11990,7 @@
         <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>148</v>
@@ -11996,15 +11999,15 @@
         <v>76</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12027,13 +12030,13 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12084,7 +12087,7 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12099,16 +12102,16 @@
         <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -475,13 +475,13 @@
 </t>
   </si>
   <si>
-    <t>Legemiddelets identifikasjon</t>
-  </si>
-  <si>
-    <t>Legemiddelets identifikasjon i henhold til TODO</t>
-  </si>
-  <si>
-    <t>Finnes ikke p.t.</t>
+    <t>Business identifier for this medication</t>
+  </si>
+  <si>
+    <t>Business identifier for this medication.</t>
+  </si>
+  <si>
+    <t>The serial number could be included as an identifier.</t>
   </si>
   <si>
     <t>.id</t>
@@ -2759,7 +2759,7 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20</t>
+    <t>2024-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -830,7 +830,7 @@
     <t>FV</t>
   </si>
   <si>
-    <t>FEST-is for legemiddel VIRKESTOFF</t>
+    <t>FEST-id for legemiddel VIRKESTOFF</t>
   </si>
   <si>
     <t>Medication.code.coding:FV.id</t>

--- a/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -601,10 +601,10 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD</t>
-  </si>
-  <si>
-    <t>FD</t>
+    <t>Medication.code.coding:FestDose</t>
+  </si>
+  <si>
+    <t>FestDose</t>
   </si>
   <si>
     <t>FEST-id for legemiddel DOSE</t>
@@ -613,19 +613,19 @@
     <t>URI for NamingSystem er midlertidig, må normeres som en del av no-basis.</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.id</t>
+    <t>Medication.code.coding:FestDose.id</t>
   </si>
   <si>
     <t>Medication.code.coding.id</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.extension</t>
+    <t>Medication.code.coding:FestDose.extension</t>
   </si>
   <si>
     <t>Medication.code.coding.extension</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.system</t>
+    <t>Medication.code.coding:FestDose.system</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -655,7 +655,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.version</t>
+    <t>Medication.code.coding:FestDose.version</t>
   </si>
   <si>
     <t>Medication.code.coding.version</t>
@@ -679,7 +679,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.code</t>
+    <t>Medication.code.coding:FestDose.code</t>
   </si>
   <si>
     <t>Medication.code.coding.code</t>
@@ -703,7 +703,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.display</t>
+    <t>Medication.code.coding:FestDose.display</t>
   </si>
   <si>
     <t>Medication.code.coding.display</t>
@@ -727,7 +727,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>Medication.code.coding:FD.userSelected</t>
+    <t>Medication.code.coding:FestDose.userSelected</t>
   </si>
   <si>
     <t>Medication.code.coding.userSelected</t>
@@ -758,103 +758,152 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>Medication.code.coding:FM</t>
-  </si>
-  <si>
-    <t>FM</t>
+    <t>Medication.code.coding:FestMerkevare</t>
+  </si>
+  <si>
+    <t>FestMerkevare</t>
   </si>
   <si>
     <t>FEST-id for legemiddel MERKEVARE</t>
   </si>
   <si>
-    <t>Medication.code.coding:FM.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FM.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FM.system</t>
+    <t>Medication.code.coding:FestMerkevare.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestMerkevare.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestMerkevare.system</t>
   </si>
   <si>
     <t>http://dmp.no/fhir/NamingSystem/festLegemiddelMerkevare</t>
   </si>
   <si>
-    <t>Medication.code.coding:FM.version</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FM.code</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FM.display</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FM.userSelected</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FP</t>
-  </si>
-  <si>
-    <t>FP</t>
+    <t>Medication.code.coding:FestMerkevare.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestMerkevare.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestMerkevare.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestMerkevare.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestPakning</t>
+  </si>
+  <si>
+    <t>FestPakning</t>
   </si>
   <si>
     <t>FEST-id for legemiddel PAKNING</t>
   </si>
   <si>
-    <t>Medication.code.coding:FP.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FP.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FP.system</t>
+    <t>Medication.code.coding:FestPakning.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestPakning.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestPakning.system</t>
   </si>
   <si>
     <t>http://dmp.no/fhir/NamingSystem/festLegemiddelPakning</t>
   </si>
   <si>
-    <t>Medication.code.coding:FP.version</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FP.code</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FP.display</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FP.userSelected</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FV</t>
-  </si>
-  <si>
-    <t>FV</t>
+    <t>Medication.code.coding:FestPakning.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestPakning.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestPakning.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestPakning.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestVirkestoff</t>
+  </si>
+  <si>
+    <t>FestVirkestoff</t>
   </si>
   <si>
     <t>FEST-id for legemiddel VIRKESTOFF</t>
   </si>
   <si>
-    <t>Medication.code.coding:FV.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FV.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FV.system</t>
+    <t>Medication.code.coding:FestVirkestoff.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestVirkestoff.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestVirkestoff.system</t>
   </si>
   <si>
     <t>http://dmp.no/fhir/NamingSystem/festLegemiddelVirkestoff</t>
   </si>
   <si>
-    <t>Medication.code.coding:FV.version</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FV.code</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FV.display</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FV.userSelected</t>
+    <t>Medication.code.coding:FestVirkestoff.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestVirkestoff.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestVirkestoff.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestVirkestoff.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel</t>
+  </si>
+  <si>
+    <t>LokaltLegemiddel</t>
+  </si>
+  <si>
+    <t>Legemiddel fra lokal katalog</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.extension:lokalLegemiddelkatalog</t>
+  </si>
+  <si>
+    <t>lokalLegemiddelkatalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhi.no/fhir/lmr/lokal-legemiddel-katalog}
+</t>
+  </si>
+  <si>
+    <t>Lokal Legemiddelkatalog</t>
+  </si>
+  <si>
+    <t>Informasjon om hvilken lokal legemiddelkatalog koden kommer fra.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.system</t>
+  </si>
+  <si>
+    <t>http://fh.no/fhir/NamingSystem/lokaltVirkemiddel</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:LokaltLegemiddel.userSelected</t>
   </si>
   <si>
     <t>Medication.code.text</t>
@@ -1544,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1553,9 +1602,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.89453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1563,7 +1612,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6985,9 +7034,11 @@
         <v>269</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7008,19 +7059,19 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7069,13 +7120,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -7087,21 +7138,21 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>276</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7118,23 +7169,21 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7159,13 +7208,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7183,7 +7232,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7195,13 +7244,13 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7212,21 +7261,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7235,18 +7284,20 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7283,53 +7334,55 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7341,7 +7394,7 @@
         <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>76</v>
@@ -7350,17 +7403,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7385,13 +7436,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7409,39 +7460,39 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7449,7 +7500,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
@@ -7461,19 +7512,23 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7482,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7521,7 +7576,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7533,38 +7588,38 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7573,19 +7628,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7623,51 +7678,51 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7675,10 +7730,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7690,19 +7745,17 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7739,23 +7792,25 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
@@ -7767,21 +7822,21 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7801,19 +7856,21 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7861,7 +7918,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7873,38 +7930,38 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7913,21 +7970,23 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7963,51 +8022,51 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8015,7 +8074,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8030,19 +8089,19 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8091,7 +8150,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8109,21 +8168,21 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>201</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8140,22 +8199,22 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8181,13 +8240,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8205,7 +8264,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8223,21 +8282,21 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8245,7 +8304,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8260,18 +8319,16 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8319,7 +8376,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8334,24 +8391,24 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>217</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8371,21 +8428,21 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8409,13 +8466,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8433,7 +8490,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8448,24 +8505,24 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>225</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8485,23 +8542,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8549,7 +8602,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8561,40 +8614,38 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8603,23 +8654,21 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8655,19 +8704,19 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8679,27 +8728,27 @@
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8707,10 +8756,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8719,19 +8768,23 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8767,62 +8820,60 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8834,17 +8885,15 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8881,31 +8930,31 @@
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -8922,21 +8971,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8945,23 +8994,21 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -8970,7 +9017,7 @@
         <v>76</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>76</v>
@@ -8997,51 +9044,51 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9049,7 +9096,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>86</v>
@@ -9064,18 +9111,20 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9123,7 +9172,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9141,21 +9190,21 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9178,18 +9227,18 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9237,7 +9286,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9255,21 +9304,21 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9277,7 +9326,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9292,17 +9341,17 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9351,7 +9400,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9369,21 +9418,21 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9397,7 +9446,7 @@
         <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>76</v>
@@ -9406,19 +9455,17 @@
         <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9467,7 +9514,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9485,25 +9532,23 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9524,19 +9569,19 @@
         <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9585,13 +9630,13 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
@@ -9603,23 +9648,25 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>183</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9637,19 +9684,23 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9697,50 +9748,50 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9752,17 +9803,15 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9799,31 +9848,31 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9840,21 +9889,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9863,23 +9912,21 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9888,7 +9935,7 @@
         <v>76</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>76</v>
@@ -9915,51 +9962,51 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9982,18 +10029,20 @@
         <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10002,7 +10051,7 @@
         <v>76</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>76</v>
@@ -10041,7 +10090,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10059,21 +10108,21 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10096,18 +10145,18 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10155,7 +10204,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10173,21 +10222,21 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10210,17 +10259,17 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10269,7 +10318,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10287,21 +10336,21 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10324,19 +10373,17 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10385,7 +10432,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10403,21 +10450,21 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10440,19 +10487,19 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10501,7 +10548,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10519,23 +10566,25 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10556,16 +10605,20 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10613,13 +10666,13 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>337</v>
+        <v>181</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
@@ -10631,21 +10684,21 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10656,7 +10709,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10668,17 +10721,15 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10727,25 +10778,25 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>342</v>
+        <v>166</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -10756,21 +10807,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -10782,15 +10833,17 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10827,31 +10880,31 @@
         <v>76</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10868,21 +10921,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10891,21 +10944,23 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
       </c>
@@ -10914,7 +10969,7 @@
         <v>76</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>76</v>
@@ -10953,75 +11008,73 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11069,39 +11122,39 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>354</v>
+        <v>207</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11109,7 +11162,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>86</v>
@@ -11121,20 +11174,20 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>359</v>
+        <v>214</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11183,10 +11236,10 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>355</v>
+        <v>215</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>86</v>
@@ -11198,24 +11251,24 @@
         <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>361</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11235,20 +11288,20 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -11297,7 +11350,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>362</v>
+        <v>223</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11315,21 +11368,21 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11349,19 +11402,23 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
       </c>
@@ -11409,7 +11466,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>367</v>
+        <v>233</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -11424,24 +11481,24 @@
         <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>341</v>
+        <v>234</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>371</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11455,25 +11512,29 @@
         <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K87" t="s" s="2">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
       </c>
@@ -11521,7 +11582,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -11536,24 +11597,24 @@
         <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11573,16 +11634,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11633,7 +11694,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -11645,13 +11706,13 @@
         <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
@@ -11662,14 +11723,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11688,16 +11749,16 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>132</v>
+        <v>359</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>133</v>
+        <v>360</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>135</v>
+        <v>362</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11747,7 +11808,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -11759,13 +11820,13 @@
         <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -11776,46 +11837,42 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>352</v>
+        <v>164</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>76</v>
       </c>
@@ -11863,25 +11920,25 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>354</v>
+        <v>166</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -11892,21 +11949,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>76</v>
@@ -11918,15 +11975,17 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>380</v>
+        <v>133</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>76</v>
@@ -11975,71 +12034,75 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>384</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12087,35 +12150,1053 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AG92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
+      <c r="B95" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK92" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN92" t="s" s="2">
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
         <v>388</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
+  <autoFilter ref="A1:AN101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12125,7 +13206,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
